--- a/biology/Zoologie/Fox-terrier/Fox-terrier.xlsx
+++ b/biology/Zoologie/Fox-terrier/Fox-terrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom fox-terrier (de l'anglais fox, signifiant renard) se réfère, en réalité, à deux  races de chiens : le fox-terrier à poil lisse (smooth fox terrier en anglais) et le fox-terrier à poil dur (wire fox terrier en anglais). Au XIXe siècle, ils étaient utilisés lors de la chasse au renard pour sortir les renards de leurs terriers (d'où son nom), facilitant ainsi la tâche du chasseur qui l'accompagnait. Son pelage est hypoallergène.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son origine remonte environ au XVIIe siècle, où la race fut créée en Angleterre, probablement par croisement entre des beagles, foxhounds et teckels. Cette race était principalement utilisée afin d'aider à la chasse du renard. Sans ce chien, cette chasse échouait lorsque le renard atteignait son terrier. Mais la petite taille du fox-terrier lui permettait d'aller déloger sa proie au fond de son trou. Le fox-terrier devait passer des épreuves pour se montrer apte à accompagner l’homme dans cette activité :
 il devait avoir la même rapidité que les chiens courants ;
@@ -546,7 +560,9 @@
           <t>Races</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux races de fox-terrier : le fox-terrier à poil lisse et le fox-terrier à poil dur. Ils n'ont été élevés indépendamment en Angleterre qu'à partir de la fin du XIXe siècle. Ces deux races de terriers sont pourtant très semblables, la seule différence notable étant le pelage : le fox terrier à poil lisse a donc le poil plat et le fox-terrier à poil dur un pelage plus long avec une texture dense et raide. 
 </t>
@@ -577,7 +593,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fox-terrier est petit par sa taille, mais sa vélocité, son agilité et sa mâchoire allongée aux crocs très acérés pour sa taille lui permettent de tenir tête à des chiens de plus grande taille. Pour cette raison et son port de tête haut, le fox-terrier passe souvent pour prétentieux. En réalité, le fox-terrier est vif, intelligent et adaptable. Il est volontiers joueur, mais saura aussi veiller sur les enfants, avec qui il est très gentil. S'il est bien sociabilisé, le fox-terrier peut s'entendre facilement avec d'autres chiens. Très exigeant vis-à-vis de son maître, il supporte peu d'être enfermé ou mis en laisse. Il peut faire un bon gardien. Son éducation doit être positive. Le fox-terrier ne se laissera pas faire si on est brutal avec lui. Le laxisme comme le rapport de force sont déconseillés. Ils peuvent être obéissants mais ils sont confiants et sûrs d'eux. Il faut leur procurer un exercice quotidien suffisant afin de garantir leur équilibre physique et mental. 
 </t>
@@ -608,7 +626,9 @@
           <t>Toilettage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épilation est très suggérée, mais les poils du fox-terrier peuvent aussi être tondus, bien que le poil perde souvent de ses couleurs et ait tendance à friser. Pour le fox terrier à poil lisse, il n'est pas nécessaire de toiletter le pelage. Toutefois, il est conseillé de brosser celui-ci afin qu'il ne tombe pas en permanence.
 </t>
@@ -639,7 +659,9 @@
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Milou (Hergé, Les Aventures de Tintin)   accompagnateur de son maître Tintin
 Montmorency (Jerome K. Jerome, Trois hommes dans un bateau)
